--- a/output/StructureDefinition-rv-creatinine-mass-concentration-in-urine.xlsx
+++ b/output/StructureDefinition-rv-creatinine-mass-concentration-in-urine.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -988,7 +988,7 @@
     <t>Observation.category:Urine.coding.system</t>
   </si>
   <si>
-    <t>https://loinc.org</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Observation.category:Urine.coding.version</t>

--- a/output/StructureDefinition-rv-creatinine-mass-concentration-in-urine.xlsx
+++ b/output/StructureDefinition-rv-creatinine-mass-concentration-in-urine.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-creatinine-mass-concentration-in-urine.xlsx
+++ b/output/StructureDefinition-rv-creatinine-mass-concentration-in-urine.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-creatinine-mass-concentration-in-urine.xlsx
+++ b/output/StructureDefinition-rv-creatinine-mass-concentration-in-urine.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-creatinine-mass-concentration-in-urine.xlsx
+++ b/output/StructureDefinition-rv-creatinine-mass-concentration-in-urine.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-creatinine-mass-concentration-in-urine.xlsx
+++ b/output/StructureDefinition-rv-creatinine-mass-concentration-in-urine.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-creatinine-mass-concentration-in-urine.xlsx
+++ b/output/StructureDefinition-rv-creatinine-mass-concentration-in-urine.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-creatinine-mass-concentration-in-urine.xlsx
+++ b/output/StructureDefinition-rv-creatinine-mass-concentration-in-urine.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
